--- a/task3.xlsx
+++ b/task3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -105,8 +105,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,10 +144,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -240,7 +240,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -275,7 +274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -451,28 +449,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -486,8 +484,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -500,8 +498,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -514,8 +512,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -528,14 +526,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -549,8 +550,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -563,8 +564,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -577,8 +578,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
@@ -591,7 +592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -599,17 +600,18 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="51" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A13:D14"/>
+    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -617,24 +619,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/task3.xlsx
+++ b/task3.xlsx
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -463,14 +463,14 @@
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -498,7 +498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -512,7 +512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -526,17 +526,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -550,7 +547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -564,7 +561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -578,7 +575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -592,7 +589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -600,18 +597,17 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="51" customHeight="1">
+    <row r="14" spans="1:4" ht="51" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A13:D14"/>
-    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
